--- a/VR Karting/Results/Trend Analysis/TrendData.xlsx
+++ b/VR Karting/Results/Trend Analysis/TrendData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/forclass/Source/Masters/VR Karting/Results/Trend Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F94CBFE-FAD5-F245-95C6-C0B24248CBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D263BC-402B-5D41-9BF9-894F04D4812C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20260" yWindow="2120" windowWidth="13580" windowHeight="17440" activeTab="1" xr2:uid="{9863E8E5-60E3-754E-8E3D-221745AF2630}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Participant</t>
   </si>
@@ -64,6 +64,16 @@
   </si>
   <si>
     <t>Session 7</t>
+  </si>
+  <si>
+    <t>NoiseType</t>
+  </si>
+  <si>
+    <t>IsAutoDrive</t>
+  </si>
+  <si>
+    <t>IsAutoDrive</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -458,320 +468,500 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B800FB0F-A199-D54A-B99D-56295F7A7CFD}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
         <v>6170</v>
       </c>
-      <c r="B2" s="2">
+      <c r="D2" s="2">
         <v>75</v>
       </c>
-      <c r="C2" s="2">
+      <c r="E2" s="2">
         <v>81.25</v>
       </c>
-      <c r="D2" s="2">
+      <c r="F2" s="2">
         <v>85.71</v>
       </c>
-      <c r="E2" s="2">
+      <c r="G2" s="2">
         <v>87.5</v>
       </c>
-      <c r="F2" s="2">
+      <c r="H2" s="2">
         <v>88.39</v>
-      </c>
-      <c r="G2" s="2">
-        <v>84.82</v>
-      </c>
-      <c r="H2" s="2">
-        <v>82.74</v>
       </c>
       <c r="I2" s="2">
         <v>84.82</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="2">
+        <v>82.74</v>
+      </c>
+      <c r="K2" s="2">
+        <v>84.82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
         <v>514</v>
       </c>
-      <c r="B3" s="2">
+      <c r="D3" s="2">
         <v>64.290000000000006</v>
       </c>
-      <c r="C3" s="2">
+      <c r="E3" s="2">
         <v>73.209999999999994</v>
       </c>
-      <c r="D3" s="2">
+      <c r="F3" s="2">
         <v>58.04</v>
       </c>
-      <c r="E3" s="2">
+      <c r="G3" s="2">
         <v>83.04</v>
       </c>
-      <c r="F3" s="2">
+      <c r="H3" s="2">
         <v>73.209999999999994</v>
       </c>
-      <c r="G3" s="2">
+      <c r="I3" s="2">
         <v>75.89</v>
       </c>
-      <c r="H3" s="2">
+      <c r="J3" s="2">
         <v>75.89</v>
       </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="K3" s="2">
+        <v>73.209999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
         <v>3097</v>
       </c>
-      <c r="B4" s="2">
+      <c r="D4" s="2">
         <v>58.04</v>
       </c>
-      <c r="C4" s="2">
+      <c r="E4" s="2">
         <v>73.209999999999994</v>
       </c>
-      <c r="D4" s="2">
+      <c r="F4" s="2">
         <v>67.86</v>
       </c>
-      <c r="E4" s="2">
+      <c r="G4" s="2">
         <v>76.790000000000006</v>
       </c>
-      <c r="F4" s="2">
+      <c r="H4" s="2">
         <v>63.39</v>
       </c>
-      <c r="G4" s="2">
+      <c r="I4" s="2">
         <v>82.14</v>
       </c>
-      <c r="H4" s="2">
+      <c r="J4" s="2">
         <v>76.790000000000006</v>
       </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="K4" s="2">
+        <v>76.790000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
         <v>1157</v>
       </c>
-      <c r="B5" s="2">
+      <c r="D5" s="2">
         <v>78.569999999999993</v>
       </c>
-      <c r="C5" s="2">
+      <c r="E5" s="2">
         <v>75</v>
       </c>
-      <c r="D5" s="2">
+      <c r="F5" s="2">
         <v>72.319999999999993</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="G5" s="2">
+        <v>80.36</v>
+      </c>
+      <c r="H5" s="2">
+        <v>75</v>
+      </c>
+      <c r="I5" s="2">
+        <v>89.29</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
         <v>2271</v>
       </c>
-      <c r="B6" s="2">
+      <c r="D6" s="2">
         <v>52.68</v>
       </c>
-      <c r="C6" s="2">
+      <c r="E6" s="2">
         <v>64.290000000000006</v>
       </c>
-      <c r="D6" s="2">
+      <c r="F6" s="2">
         <v>67.86</v>
       </c>
-      <c r="E6" s="2">
+      <c r="G6" s="2">
         <v>70.91</v>
       </c>
-      <c r="F6" s="2">
+      <c r="H6" s="2">
         <v>64.290000000000006</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
         <v>9580</v>
       </c>
-      <c r="B7" s="2">
+      <c r="D7" s="2">
         <v>64.290000000000006</v>
       </c>
-      <c r="C7" s="2">
+      <c r="E7" s="2">
         <v>79.459999999999994</v>
       </c>
-      <c r="D7" s="2">
+      <c r="F7" s="2">
         <v>77.680000000000007</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>83.93</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="H7" s="2">
+        <v>84.82</v>
+      </c>
+      <c r="I7" s="2">
+        <v>83.04</v>
+      </c>
+      <c r="J7" s="2">
+        <v>81.25</v>
+      </c>
+      <c r="K7" s="2">
+        <v>89.29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
         <v>6402</v>
       </c>
-      <c r="B8" s="2">
+      <c r="D8" s="2">
         <v>72.319999999999993</v>
       </c>
-      <c r="C8" s="2">
+      <c r="E8" s="2">
         <v>75</v>
       </c>
-      <c r="D8" s="2">
+      <c r="F8" s="2">
         <v>80.36</v>
       </c>
-      <c r="E8" s="2">
+      <c r="G8" s="2">
         <v>74.11</v>
       </c>
-      <c r="F8" s="2">
+      <c r="H8" s="2">
         <v>76.790000000000006</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" s="2">
+        <v>81.25</v>
+      </c>
+      <c r="J8" s="2">
+        <v>90.18</v>
+      </c>
+      <c r="K8" s="2">
+        <v>83.93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
         <v>5887</v>
       </c>
-      <c r="B9" s="2">
+      <c r="D9" s="2">
         <v>77.680000000000007</v>
       </c>
-      <c r="C9" s="2">
+      <c r="E9" s="2">
         <v>78.569999999999993</v>
       </c>
-      <c r="D9" s="2">
+      <c r="F9" s="2">
         <v>68.75</v>
       </c>
-      <c r="E9" s="2">
+      <c r="G9" s="2">
         <v>65.180000000000007</v>
       </c>
-      <c r="F9" s="2">
+      <c r="H9" s="2">
         <v>82.14</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
         <v>3537</v>
       </c>
-      <c r="B10" s="2">
+      <c r="D10" s="2">
         <v>59.82</v>
       </c>
-      <c r="C10" s="2">
+      <c r="E10" s="2">
         <v>77.680000000000007</v>
       </c>
-      <c r="D10" s="2">
+      <c r="F10" s="2">
         <v>71.430000000000007</v>
       </c>
-      <c r="E10" s="2">
+      <c r="G10" s="2">
         <v>79.459999999999994</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="H10" s="2">
+        <v>75.89</v>
+      </c>
+      <c r="I10" s="2">
+        <v>81.25</v>
+      </c>
+      <c r="J10" s="2">
+        <v>80.36</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
         <v>8624</v>
       </c>
-      <c r="B11" s="2">
+      <c r="D11" s="2">
         <v>59.82</v>
       </c>
-      <c r="C11" s="2">
+      <c r="E11" s="2">
         <v>66.959999999999994</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="F11" s="2">
+        <v>69.64</v>
+      </c>
+      <c r="G11" s="2">
+        <v>81.25</v>
+      </c>
+      <c r="H11" s="2">
+        <v>78.569999999999993</v>
+      </c>
+      <c r="I11" s="2">
+        <v>83.93</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
         <v>6080</v>
       </c>
-      <c r="B12" s="2">
+      <c r="D12" s="2">
         <v>74.11</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="E12" s="2">
+        <v>74.11</v>
+      </c>
+      <c r="F12" s="2">
+        <v>66.959999999999994</v>
+      </c>
+      <c r="G12" s="2">
+        <v>67.86</v>
+      </c>
+      <c r="H12" s="2">
+        <v>78.569999999999993</v>
+      </c>
       <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
         <v>926</v>
       </c>
-      <c r="B13" s="2">
+      <c r="D13" s="2">
         <v>58.93</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="E13" s="2">
+        <v>61.61</v>
+      </c>
+      <c r="F13" s="2">
+        <v>57.14</v>
+      </c>
+      <c r="G13" s="2">
+        <v>55.36</v>
+      </c>
+      <c r="H13" s="2">
+        <v>71.430000000000007</v>
+      </c>
       <c r="I13" s="2"/>
-    </row>
-    <row r="18" spans="5:5">
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="5:5">
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="5:5">
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="5:5">
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="5:5">
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="5:5">
-      <c r="E23" s="3"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8399</v>
+      </c>
+      <c r="D14" s="2">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="E14" s="2">
+        <v>72.319999999999993</v>
+      </c>
+      <c r="F14" s="2">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="G14" s="2">
+        <v>76.790000000000006</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>728</v>
+      </c>
+      <c r="D15" s="2">
+        <v>75.89</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="7:7">
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="7:7">
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="7:7">
+      <c r="G23" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -782,155 +972,283 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208389A7-3D56-9A49-A732-9E6D80509B77}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
         <v>6170</v>
       </c>
-      <c r="B2" s="2">
+      <c r="D2" s="2">
         <v>73.61</v>
       </c>
-      <c r="C2" s="2">
+      <c r="E2" s="2">
         <v>80.56</v>
       </c>
-      <c r="D2" s="2">
+      <c r="F2" s="2">
         <v>74.31</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
         <v>514</v>
       </c>
-      <c r="B3" s="2">
+      <c r="D3" s="2">
         <v>75</v>
       </c>
-      <c r="C3" s="2">
+      <c r="E3" s="2">
         <v>72.92</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3" s="2">
+        <v>74.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
         <v>3097</v>
       </c>
-      <c r="B4" s="2">
+      <c r="D4" s="2">
         <v>70.83</v>
       </c>
-      <c r="C4" s="2">
+      <c r="E4" s="2">
         <v>64.58</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
         <v>1157</v>
       </c>
-      <c r="B5" s="2">
+      <c r="D5" s="2">
         <v>71.53</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2">
+        <v>79.17</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
         <v>2271</v>
       </c>
-      <c r="B6" s="2">
+      <c r="D6" s="2">
         <v>51.39</v>
       </c>
-      <c r="C6" s="2">
+      <c r="E6" s="2">
         <v>56.94</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
         <v>9580</v>
       </c>
-      <c r="B7" s="2">
+      <c r="D7" s="2">
         <v>65.97</v>
       </c>
-      <c r="C7" s="2">
+      <c r="E7" s="2">
         <v>69.44</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
         <v>6402</v>
       </c>
-      <c r="B8" s="2">
+      <c r="D8" s="2">
         <v>66.67</v>
       </c>
-      <c r="C8" s="2">
+      <c r="E8" s="2">
         <v>64.58</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
         <v>5887</v>
       </c>
-      <c r="B9" s="2">
+      <c r="D9" s="2">
         <v>67.36</v>
       </c>
-      <c r="C9" s="2">
+      <c r="E9" s="2">
         <v>64.58</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
         <v>3537</v>
       </c>
-      <c r="B10" s="2">
+      <c r="D10" s="2">
         <v>68.06</v>
       </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="2">
+        <v>75</v>
+      </c>
+      <c r="F10" s="2">
+        <v>72.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
         <v>8624</v>
       </c>
-      <c r="B11" s="2">
+      <c r="D11" s="2">
         <v>64.58</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="2">
+        <v>66.67</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
         <v>6080</v>
       </c>
-      <c r="B12" s="2">
+      <c r="D12" s="2">
         <v>61.11</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="2">
+        <v>68.06</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
         <v>926</v>
       </c>
-      <c r="B13" s="2">
+      <c r="D13" s="2">
         <v>53.47</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="C14" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8399</v>
+      </c>
+      <c r="D14" s="2">
+        <v>69.44</v>
+      </c>
+      <c r="E14" s="2">
+        <v>65.97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>728</v>
+      </c>
+      <c r="D15" s="2">
+        <v>63.89</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/VR Karting/Results/Trend Analysis/TrendData.xlsx
+++ b/VR Karting/Results/Trend Analysis/TrendData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/forclass/Source/Masters/VR Karting/Results/Trend Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D263BC-402B-5D41-9BF9-894F04D4812C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2FE62F-0159-604F-B14E-B30C9EF41BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20260" yWindow="2120" windowWidth="13580" windowHeight="17440" activeTab="1" xr2:uid="{9863E8E5-60E3-754E-8E3D-221745AF2630}"/>
+    <workbookView xWindow="8120" yWindow="760" windowWidth="26220" windowHeight="21580" xr2:uid="{9863E8E5-60E3-754E-8E3D-221745AF2630}"/>
   </bookViews>
   <sheets>
     <sheet name="Training" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="16">
   <si>
     <t>Participant</t>
   </si>
@@ -72,8 +72,24 @@
     <t>IsAutoDrive</t>
   </si>
   <si>
-    <t>IsAutoDrive</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>Control</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DriveOnly</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoiseDrive</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParticipantID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -82,15 +98,6 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -118,13 +125,27 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -141,18 +162,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,503 +501,1171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B800FB0F-A199-D54A-B99D-56295F7A7CFD}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7">
+        <v>6170</v>
+      </c>
+      <c r="C2" s="6">
+        <v>75</v>
+      </c>
+      <c r="D2" s="6">
+        <v>81.25</v>
+      </c>
+      <c r="E2" s="6">
+        <v>85.71</v>
+      </c>
+      <c r="F2" s="6">
+        <v>87.5</v>
+      </c>
+      <c r="G2" s="6">
+        <v>88.39</v>
+      </c>
+      <c r="H2" s="6">
+        <v>84.82</v>
+      </c>
+      <c r="I2" s="6">
+        <v>82.74</v>
+      </c>
+      <c r="J2" s="6">
+        <v>84.82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7">
+        <v>514</v>
+      </c>
+      <c r="C3" s="6">
+        <v>64.290000000000006</v>
+      </c>
+      <c r="D3" s="6">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="E3" s="6">
+        <v>58.04</v>
+      </c>
+      <c r="F3" s="6">
+        <v>83.04</v>
+      </c>
+      <c r="G3" s="6">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="H3" s="6">
+        <v>75.89</v>
+      </c>
+      <c r="I3" s="6">
+        <v>75.89</v>
+      </c>
+      <c r="J3" s="6">
+        <v>73.209999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3097</v>
+      </c>
+      <c r="C4" s="6">
+        <v>58.04</v>
+      </c>
+      <c r="D4" s="6">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="E4" s="6">
+        <v>67.86</v>
+      </c>
+      <c r="F4" s="6">
+        <v>76.790000000000006</v>
+      </c>
+      <c r="G4" s="6">
+        <v>63.39</v>
+      </c>
+      <c r="H4" s="6">
+        <v>82.14</v>
+      </c>
+      <c r="I4" s="6">
+        <v>76.790000000000006</v>
+      </c>
+      <c r="J4" s="6">
+        <v>76.790000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>6170</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B5" s="7">
+        <v>9580</v>
+      </c>
+      <c r="C5" s="6">
+        <v>64.290000000000006</v>
+      </c>
+      <c r="D5" s="6">
+        <v>79.459999999999994</v>
+      </c>
+      <c r="E5" s="6">
+        <v>77.680000000000007</v>
+      </c>
+      <c r="F5" s="6">
+        <v>83.93</v>
+      </c>
+      <c r="G5" s="6">
+        <v>84.82</v>
+      </c>
+      <c r="H5" s="6">
+        <v>83.04</v>
+      </c>
+      <c r="I5" s="6">
+        <v>81.25</v>
+      </c>
+      <c r="J5" s="6">
+        <v>89.29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7">
+        <v>3691</v>
+      </c>
+      <c r="C6" s="6">
+        <v>94.64</v>
+      </c>
+      <c r="D6" s="6">
+        <v>90.18</v>
+      </c>
+      <c r="E6" s="6">
+        <v>94.64</v>
+      </c>
+      <c r="F6" s="6">
+        <v>93.75</v>
+      </c>
+      <c r="G6" s="6">
+        <v>97.32</v>
+      </c>
+      <c r="H6" s="6">
+        <v>98.21</v>
+      </c>
+      <c r="I6" s="6">
+        <v>99.11</v>
+      </c>
+      <c r="J6" s="6">
+        <v>96.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1157</v>
+      </c>
+      <c r="C7" s="6">
+        <v>78.569999999999993</v>
+      </c>
+      <c r="D7" s="6">
         <v>75</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E7" s="6">
+        <v>72.319999999999993</v>
+      </c>
+      <c r="F7" s="6">
+        <v>80.36</v>
+      </c>
+      <c r="G7" s="6">
+        <v>75</v>
+      </c>
+      <c r="H7" s="6">
+        <v>89.29</v>
+      </c>
+      <c r="I7" s="6">
+        <v>83.04</v>
+      </c>
+      <c r="J7" s="6">
+        <v>86.61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7">
+        <v>3709</v>
+      </c>
+      <c r="C8" s="6">
+        <v>70.540000000000006</v>
+      </c>
+      <c r="D8" s="6">
+        <v>70.540000000000006</v>
+      </c>
+      <c r="E8" s="6">
+        <v>78.569999999999993</v>
+      </c>
+      <c r="F8" s="6">
+        <v>77.680000000000007</v>
+      </c>
+      <c r="G8" s="6">
+        <v>84.82</v>
+      </c>
+      <c r="H8" s="6">
+        <v>80.36</v>
+      </c>
+      <c r="I8" s="6">
+        <v>85.71</v>
+      </c>
+      <c r="J8" s="6">
+        <v>86.61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5289</v>
+      </c>
+      <c r="C9" s="6">
+        <v>58.93</v>
+      </c>
+      <c r="D9" s="6">
+        <v>58.93</v>
+      </c>
+      <c r="E9" s="6">
+        <v>67.86</v>
+      </c>
+      <c r="F9" s="6">
+        <v>76.790000000000006</v>
+      </c>
+      <c r="G9" s="6">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="H9" s="6">
+        <v>78.569999999999993</v>
+      </c>
+      <c r="I9" s="6">
+        <v>67.86</v>
+      </c>
+      <c r="J9" s="6">
+        <v>77.680000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7">
+        <v>6080</v>
+      </c>
+      <c r="C10" s="6">
+        <v>74.11</v>
+      </c>
+      <c r="D10" s="6">
+        <v>74.11</v>
+      </c>
+      <c r="E10" s="6">
+        <v>66.959999999999994</v>
+      </c>
+      <c r="F10" s="6">
+        <v>67.86</v>
+      </c>
+      <c r="G10" s="6">
+        <v>78.569999999999993</v>
+      </c>
+      <c r="H10" s="6">
+        <v>69.64</v>
+      </c>
+      <c r="I10" s="6">
+        <v>79.459999999999994</v>
+      </c>
+      <c r="J10" s="6">
+        <v>71.430000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7">
+        <v>5887</v>
+      </c>
+      <c r="C11" s="6">
+        <v>77.680000000000007</v>
+      </c>
+      <c r="D11" s="6">
+        <v>78.569999999999993</v>
+      </c>
+      <c r="E11" s="6">
+        <v>68.75</v>
+      </c>
+      <c r="F11" s="6">
+        <v>65.180000000000007</v>
+      </c>
+      <c r="G11" s="6">
+        <v>82.14</v>
+      </c>
+      <c r="H11" s="6">
+        <v>84.82</v>
+      </c>
+      <c r="I11" s="6">
+        <v>76.790000000000006</v>
+      </c>
+      <c r="J11" s="6">
+        <v>76.790000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="7">
+        <v>6402</v>
+      </c>
+      <c r="C12" s="6">
+        <v>72.319999999999993</v>
+      </c>
+      <c r="D12" s="6">
+        <v>75</v>
+      </c>
+      <c r="E12" s="6">
+        <v>80.36</v>
+      </c>
+      <c r="F12" s="6">
+        <v>74.11</v>
+      </c>
+      <c r="G12" s="6">
+        <v>76.790000000000006</v>
+      </c>
+      <c r="H12" s="6">
         <v>81.25</v>
       </c>
-      <c r="F2" s="2">
+      <c r="I12" s="6">
+        <v>90.18</v>
+      </c>
+      <c r="J12" s="6">
+        <v>83.93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="7">
+        <v>9110</v>
+      </c>
+      <c r="C13" s="6">
+        <v>75</v>
+      </c>
+      <c r="D13" s="6">
+        <v>79.459999999999994</v>
+      </c>
+      <c r="E13" s="6">
+        <v>83.93</v>
+      </c>
+      <c r="F13" s="6">
+        <v>86.61</v>
+      </c>
+      <c r="G13" s="6">
+        <v>84.82</v>
+      </c>
+      <c r="H13" s="6">
         <v>85.71</v>
       </c>
-      <c r="G2" s="2">
+      <c r="I13" s="6">
+        <v>85.71</v>
+      </c>
+      <c r="J13" s="6">
+        <v>89.29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="7">
+        <v>8399</v>
+      </c>
+      <c r="C14" s="6">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="D14" s="6">
+        <v>72.319999999999993</v>
+      </c>
+      <c r="E14" s="6">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="F14" s="6">
+        <v>76.790000000000006</v>
+      </c>
+      <c r="G14" s="6">
+        <v>74.11</v>
+      </c>
+      <c r="H14" s="6">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="I14" s="6">
+        <v>82.14</v>
+      </c>
+      <c r="J14" s="6">
+        <v>83.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <v>926</v>
+      </c>
+      <c r="C15" s="6">
+        <v>58.93</v>
+      </c>
+      <c r="D15" s="6">
+        <v>61.61</v>
+      </c>
+      <c r="E15" s="6">
+        <v>57.14</v>
+      </c>
+      <c r="F15" s="6">
+        <v>55.36</v>
+      </c>
+      <c r="G15" s="6">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="H15" s="6">
+        <v>77.680000000000007</v>
+      </c>
+      <c r="I15" s="6">
+        <v>67.86</v>
+      </c>
+      <c r="J15" s="6">
+        <v>74.11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7">
+        <v>2271</v>
+      </c>
+      <c r="C16" s="6">
+        <v>52.68</v>
+      </c>
+      <c r="D16" s="6">
+        <v>64.290000000000006</v>
+      </c>
+      <c r="E16" s="6">
+        <v>67.86</v>
+      </c>
+      <c r="F16" s="6">
+        <v>74.77</v>
+      </c>
+      <c r="G16" s="6">
+        <v>64.290000000000006</v>
+      </c>
+      <c r="H16" s="6">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="I16" s="6">
+        <v>80.36</v>
+      </c>
+      <c r="J16" s="6">
+        <v>75.89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7">
+        <v>728</v>
+      </c>
+      <c r="C17" s="6">
+        <v>75.89</v>
+      </c>
+      <c r="D17" s="6">
+        <v>74.11</v>
+      </c>
+      <c r="E17" s="6">
+        <v>80.36</v>
+      </c>
+      <c r="F17" s="6">
+        <v>86.61</v>
+      </c>
+      <c r="G17" s="6">
         <v>87.5</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H17" s="6">
+        <v>81.25</v>
+      </c>
+      <c r="I17" s="6">
+        <v>81.25</v>
+      </c>
+      <c r="J17" s="6">
+        <v>78.569999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="7">
+        <v>8794</v>
+      </c>
+      <c r="C18" s="6">
+        <v>80.36</v>
+      </c>
+      <c r="D18" s="6">
+        <v>75</v>
+      </c>
+      <c r="E18" s="6">
+        <v>80.36</v>
+      </c>
+      <c r="F18" s="6">
+        <v>80.36</v>
+      </c>
+      <c r="G18" s="6">
+        <v>75</v>
+      </c>
+      <c r="H18" s="6">
+        <v>87.5</v>
+      </c>
+      <c r="I18" s="6">
+        <v>83.04</v>
+      </c>
+      <c r="J18" s="6">
+        <v>83.04</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7">
+        <v>5456</v>
+      </c>
+      <c r="C19" s="6">
+        <v>67.86</v>
+      </c>
+      <c r="D19" s="6">
+        <v>72.319999999999993</v>
+      </c>
+      <c r="E19" s="6">
+        <v>82.14</v>
+      </c>
+      <c r="F19" s="6">
+        <v>75</v>
+      </c>
+      <c r="G19" s="6">
+        <v>77.680000000000007</v>
+      </c>
+      <c r="H19" s="6">
+        <v>70.540000000000006</v>
+      </c>
+      <c r="I19" s="6">
+        <v>82.14</v>
+      </c>
+      <c r="J19" s="6">
+        <v>78.569999999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7">
+        <v>7903</v>
+      </c>
+      <c r="C20" s="6">
+        <v>67.86</v>
+      </c>
+      <c r="D20" s="6">
+        <v>72.319999999999993</v>
+      </c>
+      <c r="E20" s="6">
+        <v>66.959999999999994</v>
+      </c>
+      <c r="F20" s="6">
+        <v>77.680000000000007</v>
+      </c>
+      <c r="G20" s="6">
+        <v>77.680000000000007</v>
+      </c>
+      <c r="H20" s="6">
+        <v>66.959999999999994</v>
+      </c>
+      <c r="I20" s="6">
+        <v>72.319999999999993</v>
+      </c>
+      <c r="J20" s="6">
+        <v>67.86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5828</v>
+      </c>
+      <c r="C21" s="6">
+        <v>62.5</v>
+      </c>
+      <c r="D21" s="6">
+        <v>75.89</v>
+      </c>
+      <c r="E21" s="6">
+        <v>82.14</v>
+      </c>
+      <c r="F21" s="6">
+        <v>70.540000000000006</v>
+      </c>
+      <c r="G21" s="6">
+        <v>75.89</v>
+      </c>
+      <c r="H21" s="6">
+        <v>83.04</v>
+      </c>
+      <c r="I21" s="6">
+        <v>79.459999999999994</v>
+      </c>
+      <c r="J21" s="6">
+        <v>80.36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="7">
+        <v>2246</v>
+      </c>
+      <c r="C22" s="6">
+        <v>54.46</v>
+      </c>
+      <c r="D22" s="6">
+        <v>69.64</v>
+      </c>
+      <c r="E22" s="6">
+        <v>58.04</v>
+      </c>
+      <c r="F22" s="6">
+        <v>64.290000000000006</v>
+      </c>
+      <c r="G22" s="6">
+        <v>74.11</v>
+      </c>
+      <c r="H22" s="6">
+        <v>72.319999999999993</v>
+      </c>
+      <c r="I22" s="6">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="J22" s="6">
+        <v>66.959999999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="7">
+        <v>9648</v>
+      </c>
+      <c r="C23" s="6">
+        <v>79.459999999999994</v>
+      </c>
+      <c r="D23" s="6">
+        <v>75.89</v>
+      </c>
+      <c r="E23" s="6">
+        <v>77.680000000000007</v>
+      </c>
+      <c r="F23" s="6">
+        <v>81.25</v>
+      </c>
+      <c r="G23" s="6">
         <v>88.39</v>
       </c>
-      <c r="I2" s="2">
+      <c r="H23" s="6">
+        <v>74.11</v>
+      </c>
+      <c r="I23" s="6">
+        <v>85.71</v>
+      </c>
+      <c r="J23" s="6">
+        <v>83.04</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="7">
+        <v>2018</v>
+      </c>
+      <c r="C24" s="6">
+        <v>66.069999999999993</v>
+      </c>
+      <c r="D24" s="6">
+        <v>83.93</v>
+      </c>
+      <c r="E24" s="6">
+        <v>72.319999999999993</v>
+      </c>
+      <c r="F24" s="6">
+        <v>75.89</v>
+      </c>
+      <c r="G24" s="6">
+        <v>68.75</v>
+      </c>
+      <c r="H24" s="6">
+        <v>86.61</v>
+      </c>
+      <c r="I24" s="6">
+        <v>74.11</v>
+      </c>
+      <c r="J24" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="7">
+        <v>4638</v>
+      </c>
+      <c r="C25" s="6">
+        <v>56.25</v>
+      </c>
+      <c r="D25" s="6">
+        <v>64.290000000000006</v>
+      </c>
+      <c r="E25" s="6">
+        <v>70.540000000000006</v>
+      </c>
+      <c r="F25" s="6">
+        <v>77.680000000000007</v>
+      </c>
+      <c r="G25" s="6">
+        <v>72.319999999999993</v>
+      </c>
+      <c r="H25" s="6">
+        <v>77.680000000000007</v>
+      </c>
+      <c r="I25" s="6">
+        <v>68.75</v>
+      </c>
+      <c r="J25" s="6">
+        <v>86.61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="7">
+        <v>8624</v>
+      </c>
+      <c r="C26" s="6">
+        <v>59.82</v>
+      </c>
+      <c r="D26" s="6">
+        <v>66.959999999999994</v>
+      </c>
+      <c r="E26" s="6">
+        <v>69.64</v>
+      </c>
+      <c r="F26" s="6">
+        <v>81.25</v>
+      </c>
+      <c r="G26" s="6">
+        <v>78.569999999999993</v>
+      </c>
+      <c r="H26" s="6">
+        <v>83.93</v>
+      </c>
+      <c r="I26" s="6">
+        <v>80.36</v>
+      </c>
+      <c r="J26" s="6">
         <v>84.82</v>
       </c>
-      <c r="J2" s="2">
-        <v>82.74</v>
-      </c>
-      <c r="K2" s="2">
-        <v>84.82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>514</v>
-      </c>
-      <c r="D3" s="2">
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="7">
+        <v>9052</v>
+      </c>
+      <c r="C27" s="6">
+        <v>79.459999999999994</v>
+      </c>
+      <c r="D27" s="6">
+        <v>66.959999999999994</v>
+      </c>
+      <c r="E27" s="6">
+        <v>79.459999999999994</v>
+      </c>
+      <c r="F27" s="6">
+        <v>75.89</v>
+      </c>
+      <c r="G27" s="6">
+        <v>80.36</v>
+      </c>
+      <c r="H27" s="6">
+        <v>67.86</v>
+      </c>
+      <c r="I27" s="6">
+        <v>81.25</v>
+      </c>
+      <c r="J27" s="6">
+        <v>79.459999999999994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="7">
+        <v>3995</v>
+      </c>
+      <c r="C28" s="6">
+        <v>65.180000000000007</v>
+      </c>
+      <c r="D28" s="6">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="E28" s="6">
+        <v>55.36</v>
+      </c>
+      <c r="F28" s="6">
+        <v>67.86</v>
+      </c>
+      <c r="G28" s="6">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="H28" s="6">
+        <v>69.64</v>
+      </c>
+      <c r="I28" s="6">
+        <v>63.39</v>
+      </c>
+      <c r="J28" s="6">
+        <v>70.540000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="7">
+        <v>7249</v>
+      </c>
+      <c r="C29" s="6">
+        <v>67.86</v>
+      </c>
+      <c r="D29" s="6">
+        <v>75.89</v>
+      </c>
+      <c r="E29" s="6">
+        <v>72.319999999999993</v>
+      </c>
+      <c r="F29" s="6">
+        <v>79.459999999999994</v>
+      </c>
+      <c r="G29" s="6">
+        <v>66.959999999999994</v>
+      </c>
+      <c r="H29" s="6">
+        <v>80.36</v>
+      </c>
+      <c r="I29" s="6">
+        <v>72.319999999999993</v>
+      </c>
+      <c r="J29" s="6">
+        <v>72.319999999999993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="7">
+        <v>5162</v>
+      </c>
+      <c r="C30" s="6">
+        <v>77.680000000000007</v>
+      </c>
+      <c r="D30" s="6">
+        <v>81.25</v>
+      </c>
+      <c r="E30" s="6">
+        <v>67.86</v>
+      </c>
+      <c r="F30" s="6">
+        <v>86.61</v>
+      </c>
+      <c r="G30" s="6">
+        <v>91.07</v>
+      </c>
+      <c r="H30" s="6">
+        <v>91.96</v>
+      </c>
+      <c r="I30" s="6">
+        <v>92.86</v>
+      </c>
+      <c r="J30" s="6">
+        <v>88.39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="7">
+        <v>5920</v>
+      </c>
+      <c r="C31" s="6">
+        <v>75</v>
+      </c>
+      <c r="D31" s="6">
+        <v>69.64</v>
+      </c>
+      <c r="E31" s="6">
+        <v>70.540000000000006</v>
+      </c>
+      <c r="F31" s="6">
+        <v>76.790000000000006</v>
+      </c>
+      <c r="G31" s="6">
+        <v>81.25</v>
+      </c>
+      <c r="H31" s="6">
+        <v>86.61</v>
+      </c>
+      <c r="I31" s="6">
+        <v>85.71</v>
+      </c>
+      <c r="J31" s="6">
+        <v>76.790000000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="7">
+        <v>1046</v>
+      </c>
+      <c r="C32" s="6">
+        <v>63.39</v>
+      </c>
+      <c r="D32" s="6">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="E32" s="6">
+        <v>80.36</v>
+      </c>
+      <c r="F32" s="6">
+        <v>78.569999999999993</v>
+      </c>
+      <c r="G32" s="6">
+        <v>79.459999999999994</v>
+      </c>
+      <c r="H32" s="6">
+        <v>67.86</v>
+      </c>
+      <c r="I32" s="6">
+        <v>82.14</v>
+      </c>
+      <c r="J32" s="6">
+        <v>90.18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="7">
+        <v>3537</v>
+      </c>
+      <c r="C33" s="6">
+        <v>59.82</v>
+      </c>
+      <c r="D33" s="6">
+        <v>77.680000000000007</v>
+      </c>
+      <c r="E33" s="6">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="F33" s="6">
+        <v>79.459999999999994</v>
+      </c>
+      <c r="G33" s="6">
+        <v>75.89</v>
+      </c>
+      <c r="H33" s="6">
+        <v>81.25</v>
+      </c>
+      <c r="I33" s="6">
+        <v>80.36</v>
+      </c>
+      <c r="J33" s="6">
+        <v>75.89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="7">
+        <v>8060</v>
+      </c>
+      <c r="C34" s="6">
+        <v>67.86</v>
+      </c>
+      <c r="D34" s="6">
+        <v>60.71</v>
+      </c>
+      <c r="E34" s="6">
+        <v>74.11</v>
+      </c>
+      <c r="F34" s="6">
+        <v>60.71</v>
+      </c>
+      <c r="G34" s="6">
         <v>64.290000000000006</v>
       </c>
-      <c r="E3" s="2">
+      <c r="H34" s="6">
+        <v>77.680000000000007</v>
+      </c>
+      <c r="I34" s="6">
+        <v>77.680000000000007</v>
+      </c>
+      <c r="J34" s="6">
+        <v>77.680000000000007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="7">
+        <v>5633</v>
+      </c>
+      <c r="C35" s="6">
+        <v>60.71</v>
+      </c>
+      <c r="D35" s="6">
+        <v>60.71</v>
+      </c>
+      <c r="E35" s="6">
         <v>73.209999999999994</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F35" s="6">
+        <v>70.540000000000006</v>
+      </c>
+      <c r="G35" s="6">
+        <v>70.540000000000006</v>
+      </c>
+      <c r="H35" s="6">
+        <v>85.71</v>
+      </c>
+      <c r="I35" s="6">
+        <v>68.75</v>
+      </c>
+      <c r="J35" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="7">
+        <v>6521</v>
+      </c>
+      <c r="C36" s="6">
+        <v>58.93</v>
+      </c>
+      <c r="D36" s="6">
+        <v>63.39</v>
+      </c>
+      <c r="E36" s="6">
         <v>58.04</v>
       </c>
-      <c r="G3" s="2">
-        <v>83.04</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="F36" s="6">
         <v>73.209999999999994</v>
       </c>
-      <c r="I3" s="2">
-        <v>75.89</v>
-      </c>
-      <c r="J3" s="2">
-        <v>75.89</v>
-      </c>
-      <c r="K3" s="2">
-        <v>73.209999999999994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3097</v>
-      </c>
-      <c r="D4" s="2">
-        <v>58.04</v>
-      </c>
-      <c r="E4" s="2">
-        <v>73.209999999999994</v>
-      </c>
-      <c r="F4" s="2">
-        <v>67.86</v>
-      </c>
-      <c r="G4" s="2">
-        <v>76.790000000000006</v>
-      </c>
-      <c r="H4" s="2">
-        <v>63.39</v>
-      </c>
-      <c r="I4" s="2">
-        <v>82.14</v>
-      </c>
-      <c r="J4" s="2">
-        <v>76.790000000000006</v>
-      </c>
-      <c r="K4" s="2">
-        <v>76.790000000000006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1157</v>
-      </c>
-      <c r="D5" s="2">
-        <v>78.569999999999993</v>
-      </c>
-      <c r="E5" s="2">
-        <v>75</v>
-      </c>
-      <c r="F5" s="2">
-        <v>72.319999999999993</v>
-      </c>
-      <c r="G5" s="2">
-        <v>80.36</v>
-      </c>
-      <c r="H5" s="2">
-        <v>75</v>
-      </c>
-      <c r="I5" s="2">
-        <v>89.29</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2271</v>
-      </c>
-      <c r="D6" s="2">
-        <v>52.68</v>
-      </c>
-      <c r="E6" s="2">
-        <v>64.290000000000006</v>
-      </c>
-      <c r="F6" s="2">
-        <v>67.86</v>
-      </c>
-      <c r="G6" s="2">
-        <v>70.91</v>
-      </c>
-      <c r="H6" s="2">
-        <v>64.290000000000006</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>9580</v>
-      </c>
-      <c r="D7" s="2">
-        <v>64.290000000000006</v>
-      </c>
-      <c r="E7" s="2">
-        <v>79.459999999999994</v>
-      </c>
-      <c r="F7" s="2">
-        <v>77.680000000000007</v>
-      </c>
-      <c r="G7" s="2">
-        <v>83.93</v>
-      </c>
-      <c r="H7" s="2">
-        <v>84.82</v>
-      </c>
-      <c r="I7" s="2">
-        <v>83.04</v>
-      </c>
-      <c r="J7" s="2">
-        <v>81.25</v>
-      </c>
-      <c r="K7" s="2">
-        <v>89.29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6402</v>
-      </c>
-      <c r="D8" s="2">
-        <v>72.319999999999993</v>
-      </c>
-      <c r="E8" s="2">
-        <v>75</v>
-      </c>
-      <c r="F8" s="2">
-        <v>80.36</v>
-      </c>
-      <c r="G8" s="2">
-        <v>74.11</v>
-      </c>
-      <c r="H8" s="2">
-        <v>76.790000000000006</v>
-      </c>
-      <c r="I8" s="2">
-        <v>81.25</v>
-      </c>
-      <c r="J8" s="2">
-        <v>90.18</v>
-      </c>
-      <c r="K8" s="2">
-        <v>83.93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5887</v>
-      </c>
-      <c r="D9" s="2">
-        <v>77.680000000000007</v>
-      </c>
-      <c r="E9" s="2">
-        <v>78.569999999999993</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="G36" s="6">
+        <v>65.180000000000007</v>
+      </c>
+      <c r="H36" s="6">
+        <v>61.61</v>
+      </c>
+      <c r="I36" s="6">
         <v>68.75</v>
       </c>
-      <c r="G9" s="2">
-        <v>65.180000000000007</v>
-      </c>
-      <c r="H9" s="2">
-        <v>82.14</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3537</v>
-      </c>
-      <c r="D10" s="2">
-        <v>59.82</v>
-      </c>
-      <c r="E10" s="2">
-        <v>77.680000000000007</v>
-      </c>
-      <c r="F10" s="2">
-        <v>71.430000000000007</v>
-      </c>
-      <c r="G10" s="2">
-        <v>79.459999999999994</v>
-      </c>
-      <c r="H10" s="2">
-        <v>75.89</v>
-      </c>
-      <c r="I10" s="2">
-        <v>81.25</v>
-      </c>
-      <c r="J10" s="2">
-        <v>80.36</v>
-      </c>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>8624</v>
-      </c>
-      <c r="D11" s="2">
-        <v>59.82</v>
-      </c>
-      <c r="E11" s="2">
-        <v>66.959999999999994</v>
-      </c>
-      <c r="F11" s="2">
-        <v>69.64</v>
-      </c>
-      <c r="G11" s="2">
-        <v>81.25</v>
-      </c>
-      <c r="H11" s="2">
-        <v>78.569999999999993</v>
-      </c>
-      <c r="I11" s="2">
-        <v>83.93</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>6080</v>
-      </c>
-      <c r="D12" s="2">
-        <v>74.11</v>
-      </c>
-      <c r="E12" s="2">
-        <v>74.11</v>
-      </c>
-      <c r="F12" s="2">
-        <v>66.959999999999994</v>
-      </c>
-      <c r="G12" s="2">
-        <v>67.86</v>
-      </c>
-      <c r="H12" s="2">
-        <v>78.569999999999993</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>926</v>
-      </c>
-      <c r="D13" s="2">
-        <v>58.93</v>
-      </c>
-      <c r="E13" s="2">
-        <v>61.61</v>
-      </c>
-      <c r="F13" s="2">
-        <v>57.14</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="J36" s="6">
         <v>55.36</v>
       </c>
-      <c r="H13" s="2">
-        <v>71.430000000000007</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>8399</v>
-      </c>
-      <c r="D14" s="2">
-        <v>73.209999999999994</v>
-      </c>
-      <c r="E14" s="2">
-        <v>72.319999999999993</v>
-      </c>
-      <c r="F14" s="2">
-        <v>71.430000000000007</v>
-      </c>
-      <c r="G14" s="2">
-        <v>76.790000000000006</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>728</v>
-      </c>
-      <c r="D15" s="2">
-        <v>75.89</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="18" spans="7:7">
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="7:7">
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="7:7">
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="7:7">
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="7:7">
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="7:7">
-      <c r="G23" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -974,8 +1675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208389A7-3D56-9A49-A732-9E6D80509B77}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1251,7 +1952,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>